--- a/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,32 +474,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5809188522</v>
+        <v>5809570196</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-21 22:40:13</t>
+          <t>2021-11-21 23:33:21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Panic-</t>
+          <t>桃树下的孩子</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>草西装男好可怕</t>
+          <t>感谢字幕！第六场的普通版剪辑版双声道的少年/少女记忆虽然别有一番风味，而且剪辑在一起能明显看出很多动作都是同步或者对称的，对照着看特别有感觉，但是能看到清晰独立版本的活着的只有我（？）真的好棒！以及！！！真诚安利大家关注这场犬彦和宫比的互动，包括狼欒神社solo的时候模拟打鼓啦，井户曲摸头啦，魔神曲犬彦拉住宫比的手揽住他的腰等等，互动又多又甜（当然其他场也很甜！我记得有一场，忘记是哪场了狼欒solo时宫比在后面给犬彦比心心！），这对青梅竹马（大概是吧）真的超级超级好嗑！！！</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -508,25 +508,25 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5808581488</v>
+        <v>5809780005</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-21 21:09:35</t>
+          <t>2021-11-22 00:05:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>羽蛇的尾巴尖</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>迅速缓存</t>
+          <t>弹幕中的翻译佬！！感谢指正[脱单doge]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,31 +536,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5809570196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5808292895</v>
+        <v>5810538568</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-21 20:23:50</t>
+          <t>2021-11-22 06:45:54</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>烟云z</t>
+          <t>冬の伝言</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>太顶了老哥[BW2020_棒棒哦]</t>
+          <t>唉，怎么说呢，自从进击的轨迹之后近年的陛下仿佛是换了一种形象，虽说是放开了许多，但也让人感到缺失了5.6.7平表演时的悲伤、感动和纪行时的那种温柔、坚毅、富有人格魅力的感觉</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -576,104 +576,512 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5810353355</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-11-22 03:00:50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>召唤魔术</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>求上传其他场次生肉[tv_大佬]</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5809727182</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:58:18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>夏空凛冬至</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>谢谢up！不知道还有没有其他的！</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5809752664</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:01:40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>暂时...不会做了吧，原因看视频开头</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5809727182</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5809822355</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:13:14</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>我心向云月</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5809727182</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5810008526</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:49:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hexachlorocyclohexane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5809727182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B10" t="n">
+        <v>5809720823</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:56:28</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VirginMary</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>好耶 来了来了</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5809565870</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:33:05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>我心向云月</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>西装男跟夜姬一起演太可怕了，jk快远离疯批男[冷]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5809188522</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-11-21 22:40:13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Panic-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>草西装男好可怕</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5808581488</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-11-21 21:09:35</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>羽蛇的尾巴尖</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>迅速缓存</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5810522401</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:24:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[tv_点赞]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5808581488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5808292895</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:23:50</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>烟云z</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>太顶了老哥[BW2020_棒棒哦]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>5808208456</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>2021-11-21 20:10:25</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>前面传错了版本，已更正。
 曲目信息、想说的话都在视频里了。
 第一场重制版也已上传，链接https://www.bilibili.com/video/BV1EU4y1u7HA</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>5807519793</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2021-11-21 18:25:36</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>墨弦青风</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>感谢up，up辛苦了[热词系列_吹爆]</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5810526423</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:24:28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>感谢(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5807519793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>5807507484</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2021-11-21 18:22:28</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>syyuansang</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>这是第几场，泪目了</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,32 +474,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5809570196</v>
+        <v>5809565870</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-21 23:33:21</t>
+          <t>2021-11-21 23:33:05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>桃树下的孩子</t>
+          <t>我心向云月</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>感谢字幕！第六场的普通版剪辑版双声道的少年/少女记忆虽然别有一番风味，而且剪辑在一起能明显看出很多动作都是同步或者对称的，对照着看特别有感觉，但是能看到清晰独立版本的活着的只有我（？）真的好棒！以及！！！真诚安利大家关注这场犬彦和宫比的互动，包括狼欒神社solo的时候模拟打鼓啦，井户曲摸头啦，魔神曲犬彦拉住宫比的手揽住他的腰等等，互动又多又甜（当然其他场也很甜！我记得有一场，忘记是哪场了狼欒solo时宫比在后面给犬彦比心心！），这对青梅竹马（大概是吧）真的超级超级好嗑！！！</t>
+          <t>西装男跟夜姬一起演太可怕了，jk快远离疯批男[冷]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -508,59 +508,59 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5809780005</v>
+        <v>5809570196</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-22 00:05:05</t>
+          <t>2021-11-21 23:33:21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>桃树下的孩子</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>弹幕中的翻译佬！！感谢指正[脱单doge]</t>
+          <t>感谢字幕！第六场的普通版剪辑版双声道的少年/少女记忆虽然别有一番风味，而且剪辑在一起能明显看出很多动作都是同步或者对称的，对照着看特别有感觉，但是能看到清晰独立版本的活着的只有我（？）真的好棒！以及！！！真诚安利大家关注这场犬彦和宫比的互动，包括狼欒神社solo的时候模拟打鼓啦，井户曲摸头啦，魔神曲犬彦拉住宫比的手揽住他的腰等等，互动又多又甜（当然其他场也很甜！我记得有一场，忘记是哪场了狼欒solo时宫比在后面给犬彦比心心！），这对青梅竹马（大概是吧）真的超级超级好嗑！！！</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5809570196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5810538568</v>
+        <v>5809780005</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-22 06:45:54</t>
+          <t>2021-11-22 00:05:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>冬の伝言</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>唉，怎么说呢，自从进击的轨迹之后近年的陛下仿佛是换了一种形象，虽说是放开了许多，但也让人感到缺失了5.6.7平表演时的悲伤、感动和纪行时的那种温柔、坚毅、富有人格魅力的感觉</t>
+          <t>弹幕中的翻译佬！！感谢指正[脱单doge]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -570,31 +570,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5809570196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5810353355</v>
+        <v>5815188052</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-22 03:00:50</t>
+          <t>2021-11-22 22:59:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>召唤魔术</t>
+          <t>自律-Official</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>求上传其他场次生肉[tv_大佬]</t>
+          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -610,32 +610,32 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5809727182</v>
+        <v>5807519793</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-21 23:58:18</t>
+          <t>2021-11-21 18:25:36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>夏空凛冬至</t>
+          <t>墨弦青风</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>谢谢up！不知道还有没有其他的！</t>
+          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -644,15 +644,15 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5809752664</v>
+        <v>5810526423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-22 00:01:40</t>
+          <t>2021-11-22 06:24:28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>暂时...不会做了吧，原因看视频开头</t>
+          <t>感谢(=・ω・=)</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -672,307 +672,307 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5809727182</v>
+        <v>5807519793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5809822355</v>
+        <v>5808208456</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-11-22 00:13:14</t>
+          <t>2021-11-21 20:10:25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>我心向云月</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5809727182</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5810008526</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2021-11-22 00:49:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Hexachlorocyclohexane</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5809727182</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5809720823</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021-11-21 23:56:28</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VirginMary</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>好耶 来了来了</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5809565870</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021-11-21 23:33:05</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>我心向云月</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>西装男跟夜姬一起演太可怕了，jk快远离疯批男[冷]</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5809188522</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021-11-21 22:40:13</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Panic-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>草西装男好可怕</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5808581488</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2021-11-21 21:09:35</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>羽蛇的尾巴尖</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>迅速缓存</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5810522401</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021-11-22 06:24:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Ponster_</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[tv_点赞]</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5808581488</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5808292895</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:23:50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>烟云z</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>太顶了老哥[BW2020_棒棒哦]</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5808208456</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:10:25</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ponster_</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>前面传错了版本，已更正。
 曲目信息、想说的话都在视频里了。
 第一场重制版也已上传，链接https://www.bilibili.com/video/BV1EU4y1u7HA</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5808292895</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:23:50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>烟云z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>太顶了老哥[BW2020_棒棒哦]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5808581488</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-11-21 21:09:35</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>羽蛇的尾巴尖</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>迅速缓存</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5810522401</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:24:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[tv_点赞]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5808581488</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5809188522</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-11-21 22:40:13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Panic-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>草西装男好可怕</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5809720823</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:56:28</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VirginMary</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>好耶 来了来了</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5815080989</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-11-22 22:43:19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>艾奥萝卜</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>先马再看</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5809727182</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:58:18</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>夏空凛冬至</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>谢谢up！不知道还有没有其他的！</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5809752664</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:01:40</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>暂时...不会做了吧，原因看视频开头</t>
+        </is>
+      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -980,65 +980,65 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5807519793</v>
+        <v>5809822355</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-11-21 18:25:36</t>
+          <t>2021-11-22 00:13:14</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>我心向云月</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
+          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5810526423</v>
+        <v>5810008526</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-11-22 06:24:28</t>
+          <t>2021-11-22 00:49:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>Hexachlorocyclohexane</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>感谢(=・ω・=)</t>
+          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1048,40 +1048,448 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5807519793</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>5810353355</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-11-22 03:00:50</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>召唤魔术</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>求上传其他场次生肉[tv_大佬]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5810538568</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:45:54</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>冬の伝言</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>唉，怎么说呢，自从进击的轨迹之后近年的陛下仿佛是换了一种形象，虽说是放开了许多，但也让人感到缺失了5.6.7平表演时的悲伤、感动和纪行时的那种温柔、坚毅、富有人格魅力的感觉</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5811776235</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-11-22 12:37:31</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>不是你的朱雀</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>从忧郁小王子变成了阳光大男孩</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5810538568</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5814346853</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-11-22 20:52:20</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>说起来陛下已经是40+的中年大叔了啊（大不敬）</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5810538568</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5812089382</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-11-22 13:36:01</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>enemin</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>太感谢了 之前还有一版安可不知道有没有大佬传 几乎是猫咪铃唱人偶的</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5814158584</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-11-22 20:21:43</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>林花花花</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>那个b站之前有，是被删了吗</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5812089382</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5814154479</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-11-22 20:22:06</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>林花花花</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>还好缓存的快</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5812089382</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5814448893</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-11-22 21:08:40</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>enemin</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>回复 @林花花花 :是啊 我前一秒还在看 然后推出去发现就无了 没有缓存 伤心了</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5812089382</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5812890404</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-11-22 16:48:22</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大白梨°</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[doge]陛下终究还是老了，不装13我很不习惯的</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5813229158</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021-11-22 17:57:18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>林花花花</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>感谢！！</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5813402664</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021-11-22 18:25:22</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>也感谢你(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5813229158</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5814183617</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-11-22 20:26:08</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>林花花花</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>回复 @Ponster_ :想看八平[笑哭]</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5813229158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>5807507484</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>2021-11-21 18:22:28</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>syyuansang</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>这是第几场，泪目了</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,32 +474,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5809565870</v>
+        <v>5809570196</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-21 23:33:05</t>
+          <t>2021-11-21 23:33:21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>我心向云月</t>
+          <t>桃树下的孩子</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>西装男跟夜姬一起演太可怕了，jk快远离疯批男[冷]</t>
+          <t>感谢字幕！第六场的普通版剪辑版双声道的少年/少女记忆虽然别有一番风味，而且剪辑在一起能明显看出很多动作都是同步或者对称的，对照着看特别有感觉，但是能看到清晰独立版本的活着的只有我（？）真的好棒！以及！！！真诚安利大家关注这场犬彦和宫比的互动，包括狼欒神社solo的时候模拟打鼓啦，井户曲摸头啦，魔神曲犬彦拉住宫比的手揽住他的腰等等，互动又多又甜（当然其他场也很甜！我记得有一场，忘记是哪场了狼欒solo时宫比在后面给犬彦比心心！），这对青梅竹马（大概是吧）真的超级超级好嗑！！！</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -508,69 +508,69 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5809780005</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:05:05</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>弹幕中的翻译佬！！感谢指正[脱单doge]</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>5809570196</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2021-11-21 23:33:21</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>桃树下的孩子</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>感谢字幕！第六场的普通版剪辑版双声道的少年/少女记忆虽然别有一番风味，而且剪辑在一起能明显看出很多动作都是同步或者对称的，对照着看特别有感觉，但是能看到清晰独立版本的活着的只有我（？）真的好棒！以及！！！真诚安利大家关注这场犬彦和宫比的互动，包括狼欒神社solo的时候模拟打鼓啦，井户曲摸头啦，魔神曲犬彦拉住宫比的手揽住他的腰等等，互动又多又甜（当然其他场也很甜！我记得有一场，忘记是哪场了狼欒solo时宫比在后面给犬彦比心心！），这对青梅竹马（大概是吧）真的超级超级好嗑！！！</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5809780005</v>
+        <v>5809565870</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-22 00:05:05</t>
+          <t>2021-11-21 23:33:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>我心向云月</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>弹幕中的翻译佬！！感谢指正[脱单doge]</t>
+          <t>西装男跟夜姬一起演太可怕了，jk快远离疯批男[冷]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5809570196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -580,21 +580,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5815188052</v>
+        <v>5817605996</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-22 22:59:05</t>
+          <t>2021-11-23 12:32:48</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>自律-Official</t>
+          <t>总攻祁墨宸大人</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
+          <t>飞速闻讯而来</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -610,32 +610,32 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5807519793</v>
+        <v>5815985159</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-21 18:25:36</t>
+          <t>2021-11-23 01:26:12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>木容秀吉</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
+          <t>这个安可我直呼好家伙</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -644,97 +644,97 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5810526423</v>
+        <v>5807519793</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-22 06:24:28</t>
+          <t>2021-11-21 18:25:36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>墨弦青风</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>感谢(=・ω・=)</t>
+          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5807519793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>5810526423</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:24:28</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>感谢(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5807519793</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>5808208456</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>2021-11-21 20:10:25</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>前面传错了版本，已更正。
 曲目信息、想说的话都在视频里了。
 第一场重制版也已上传，链接https://www.bilibili.com/video/BV1EU4y1u7HA</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5808292895</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:23:50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>烟云z</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>太顶了老哥[BW2020_棒棒哦]</t>
-        </is>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -748,32 +748,32 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5808581488</v>
+        <v>5808292895</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-11-21 21:09:35</t>
+          <t>2021-11-21 20:23:50</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>羽蛇的尾巴尖</t>
+          <t>烟云z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>迅速缓存</t>
+          <t>太顶了老哥[BW2020_棒棒哦]</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -782,59 +782,59 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5810522401</v>
+        <v>5808581488</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-11-22 06:24:00</t>
+          <t>2021-11-21 21:09:35</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>羽蛇的尾巴尖</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[tv_点赞]</t>
+          <t>迅速缓存</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5808581488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5809188522</v>
+        <v>5810522401</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-11-21 22:40:13</t>
+          <t>2021-11-22 06:24:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Panic-</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>草西装男好可怕</t>
+          <t>[tv_点赞]</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -844,31 +844,31 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5808581488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5809720823</v>
+        <v>5809188522</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-11-21 23:56:28</t>
+          <t>2021-11-21 22:40:13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VirginMary</t>
+          <t>Panic-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>好耶 来了来了</t>
+          <t>草西装男好可怕</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -884,25 +884,25 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5815080989</v>
+        <v>5809720823</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-11-22 22:43:19</t>
+          <t>2021-11-21 23:56:28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>艾奥萝卜</t>
+          <t>VirginMary</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>先马再看</t>
+          <t>好耶 来了来了</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -918,7 +918,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -952,7 +952,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -986,7 +986,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1020,7 +1020,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1054,7 +1054,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1088,7 +1088,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1122,7 +1122,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1156,7 +1156,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1190,7 +1190,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1224,7 +1224,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1258,7 +1258,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1292,7 +1292,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1326,7 +1326,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1360,7 +1360,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1394,7 +1394,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1428,7 +1428,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1462,34 +1462,240 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>5815080989</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-11-22 22:43:19</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>艾奥萝卜</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>先马再看</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5815188052</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-11-22 22:59:05</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>自律-Official</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5815284440</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-11-22 23:12:58</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>这里不要脸地对简介链接里的仓库进行一个安利[doge]
+视频的评论区、弹幕已备份到其中，刚刚更新过
+[吃瓜][吃瓜][吃瓜]</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5815188052</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5815389687</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-11-22 23:28:15</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>自律-Official</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>回复 @Ponster_ :好起来了[夏诺雅_震撼]</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5815188052</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5815263944</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-11-22 23:09:47</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>敦肃皇贵妃葛小队</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>第一次看西装男吓尿了</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5815293406</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-11-22 23:14:02</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>陛下可是“音乐界的杀人贵公子”呢</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5815263944</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>5807507484</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>2021-11-21 18:22:28</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>syyuansang</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>这是第几场，泪目了</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -580,21 +580,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5817605996</v>
+        <v>5819891283</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-23 12:32:48</t>
+          <t>2021-11-23 20:01:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>总攻祁墨宸大人</t>
+          <t>霜小凝</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>飞速闻讯而来</t>
+          <t>一键三连了！</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -610,32 +610,32 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5815985159</v>
+        <v>5809727182</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-23 01:26:12</t>
+          <t>2021-11-21 23:58:18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>木容秀吉</t>
+          <t>夏空凛冬至</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>这个安可我直呼好家伙</t>
+          <t>谢谢up！不知道还有没有其他的！</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -644,59 +644,59 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5807519793</v>
+        <v>5809752664</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-21 18:25:36</t>
+          <t>2021-11-22 00:01:40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
+          <t>暂时...不会做了吧，原因看视频开头</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5810526423</v>
+        <v>5809822355</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-11-22 06:24:28</t>
+          <t>2021-11-22 00:13:14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>我心向云月</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>感谢(=・ω・=)</t>
+          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -706,137 +706,137 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5807519793</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>5810008526</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:49:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hexachlorocyclohexane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5809727182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5807519793</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:25:36</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>墨弦青风</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5810526423</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:24:28</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>感谢(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5807519793</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>5808208456</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2021-11-21 20:10:25</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>前面传错了版本，已更正。
 曲目信息、想说的话都在视频里了。
 第一场重制版也已上传，链接https://www.bilibili.com/video/BV1EU4y1u7HA</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5808292895</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:23:50</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>烟云z</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>太顶了老哥[BW2020_棒棒哦]</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5808581488</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021-11-21 21:09:35</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>羽蛇的尾巴尖</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>迅速缓存</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>16.1</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5810522401</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021-11-22 06:24:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ponster_</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[tv_点赞]</t>
-        </is>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -844,31 +844,31 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5808581488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5809188522</v>
+        <v>5808292895</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-11-21 22:40:13</t>
+          <t>2021-11-21 20:23:50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Panic-</t>
+          <t>烟云z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>草西装男好可怕</t>
+          <t>太顶了老哥[BW2020_棒棒哦]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -884,32 +884,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5809720823</v>
+        <v>5808581488</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-11-21 23:56:28</t>
+          <t>2021-11-21 21:09:35</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VirginMary</t>
+          <t>羽蛇的尾巴尖</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>好耶 来了来了</t>
+          <t>迅速缓存</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,59 +918,59 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5809727182</v>
+        <v>5810522401</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-11-21 23:58:18</t>
+          <t>2021-11-22 06:24:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>夏空凛冬至</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>谢谢up！不知道还有没有其他的！</t>
+          <t>[tv_点赞]</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5808581488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5809752664</v>
+        <v>5809188522</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-11-22 00:01:40</t>
+          <t>2021-11-21 22:40:13</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>Panic-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>暂时...不会做了吧，原因看视频开头</t>
+          <t>草西装男好可怕</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -980,31 +980,31 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5809727182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5809822355</v>
+        <v>5809720823</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-11-22 00:13:14</t>
+          <t>2021-11-21 23:56:28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>我心向云月</t>
+          <t>VirginMary</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
+          <t>好耶 来了来了</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1014,31 +1014,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5809727182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5810008526</v>
+        <v>5810353355</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-11-22 00:49:30</t>
+          <t>2021-11-22 03:00:50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hexachlorocyclohexane</t>
+          <t>召唤魔术</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
+          <t>求上传其他场次生肉[tv_大佬]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1048,31 +1048,31 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5809727182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5810353355</v>
+        <v>5817605996</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-11-22 03:00:50</t>
+          <t>2021-11-23 12:32:48</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>召唤魔术</t>
+          <t>总攻祁墨宸大人</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>求上传其他场次生肉[tv_大佬]</t>
+          <t>飞速闻讯而来</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1088,7 +1088,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1156,7 +1156,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1190,83 +1190,83 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5812089382</v>
+        <v>5818583189</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-11-22 13:36:01</t>
+          <t>2021-11-23 16:14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>enemin</t>
+          <t>燈留子</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>太感谢了 之前还有一版安可不知道有没有大佬传 几乎是猫咪铃唱人偶的</t>
+          <t>陛下2040+岁了变得开朗也很不错</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5810538568</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5814158584</v>
+        <v>5812089382</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-11-22 20:21:43</t>
+          <t>2021-11-22 13:36:01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>林花花花</t>
+          <t>enemin</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>那个b站之前有，是被删了吗</t>
+          <t>太感谢了 之前还有一版安可不知道有没有大佬传 几乎是猫咪铃唱人偶的</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>5812089382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5814154479</v>
+        <v>5814158584</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-11-22 20:22:06</t>
+          <t>2021-11-22 20:21:43</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>还好缓存的快</t>
+          <t>那个b站之前有，是被删了吗</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1292,25 +1292,25 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5814448893</v>
+        <v>5814154479</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-11-22 21:08:40</t>
+          <t>2021-11-22 20:22:06</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>enemin</t>
+          <t>林花花花</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>回复 @林花花花 :是啊 我前一秒还在看 然后推出去发现就无了 没有缓存 伤心了</t>
+          <t>还好缓存的快</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1326,25 +1326,25 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5812890404</v>
+        <v>5814448893</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-11-22 16:48:22</t>
+          <t>2021-11-22 21:08:40</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大白梨°</t>
+          <t>enemin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[doge]陛下终究还是老了，不装13我很不习惯的</t>
+          <t>回复 @林花花花 :是啊 我前一秒还在看 然后推出去发现就无了 没有缓存 伤心了</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1354,38 +1354,38 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5812089382</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5813229158</v>
+        <v>5812890404</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-11-22 17:57:18</t>
+          <t>2021-11-22 16:48:22</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>林花花花</t>
+          <t>大白梨°</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>感谢！！</t>
+          <t>[doge]陛下终究还是老了，不装13我很不习惯的</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1394,59 +1394,59 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5813402664</v>
+        <v>5813229158</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-11-22 18:25:22</t>
+          <t>2021-11-22 17:57:18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>林花花花</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>也感谢你(=・ω・=)</t>
+          <t>感谢！！</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>5813229158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5814183617</v>
+        <v>5813402664</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-11-22 20:26:08</t>
+          <t>2021-11-22 18:25:22</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>林花花花</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>回复 @Ponster_ :想看八平[笑哭]</t>
+          <t>也感谢你(=・ω・=)</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1462,25 +1462,25 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5815080989</v>
+        <v>5814183617</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-11-22 22:43:19</t>
+          <t>2021-11-22 20:26:08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>艾奥萝卜</t>
+          <t>林花花花</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>先马再看</t>
+          <t>回复 @Ponster_ :想看八平[笑哭]</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1490,38 +1490,38 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5813229158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5815188052</v>
+        <v>5815080989</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-11-22 22:59:05</t>
+          <t>2021-11-22 22:43:19</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>自律-Official</t>
+          <t>艾奥萝卜</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
+          <t>先马再看</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,63 +1530,63 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>5815188052</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-11-22 22:59:05</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>自律-Official</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>5815284440</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>2021-11-22 23:12:58</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>这里不要脸地对简介链接里的仓库进行一个安利[doge]
 视频的评论区、弹幕已备份到其中，刚刚更新过
 [吃瓜][吃瓜][吃瓜]</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5815188052</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5815389687</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2021-11-22 23:28:15</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>自律-Official</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>回复 @Ponster_ :好起来了[夏诺雅_震撼]</t>
-        </is>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
@@ -1600,102 +1600,170 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5815263944</v>
+        <v>5815389687</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-11-22 23:09:47</t>
+          <t>2021-11-22 23:28:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>敦肃皇贵妃葛小队</t>
+          <t>自律-Official</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>第一次看西装男吓尿了</t>
+          <t>回复 @Ponster_ :好起来了[夏诺雅_震撼]</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5815188052</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5815293406</v>
+        <v>5815263944</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-11-22 23:14:02</t>
+          <t>2021-11-22 23:09:47</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>敦肃皇贵妃葛小队</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>陛下可是“音乐界的杀人贵公子”呢</t>
+          <t>第一次看西装男吓尿了</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>5815263944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B37" t="n">
+        <v>5815293406</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-11-22 23:14:02</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>陛下可是“音乐界的杀人贵公子”呢</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5815263944</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5815985159</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-11-23 01:26:12</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>木容秀吉</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>这个安可我直呼好家伙</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>5807507484</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>2021-11-21 18:22:28</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>syyuansang</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>这是第几场，泪目了</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1VL411M7aq_第六场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,32 +576,32 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5819891283</v>
+        <v>5810538568</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-23 20:01:10</t>
+          <t>2021-11-22 06:45:54</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>霜小凝</t>
+          <t>冬の伝言</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>一键三连了！</t>
+          <t>唉，怎么说呢，自从进击的轨迹之后近年的陛下仿佛是换了一种形象，虽说是放开了许多，但也让人感到缺失了5.6.7平表演时的悲伤、感动和纪行时的那种温柔、坚毅、富有人格魅力的感觉</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -610,49 +610,49 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5809727182</v>
+        <v>5811776235</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-21 23:58:18</t>
+          <t>2021-11-22 12:37:31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>夏空凛冬至</t>
+          <t>不是你的朱雀</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>谢谢up！不知道还有没有其他的！</t>
+          <t>从忧郁小王子变成了阳光大男孩</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5810538568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5809752664</v>
+        <v>5814346853</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-22 00:01:40</t>
+          <t>2021-11-22 20:52:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>暂时...不会做了吧，原因看视频开头</t>
+          <t>说起来陛下已经是40+的中年大叔了啊（大不敬）</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -672,31 +672,31 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5809727182</v>
+        <v>5810538568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5809822355</v>
+        <v>5818583189</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-11-22 00:13:14</t>
+          <t>2021-11-23 16:14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>我心向云月</t>
+          <t>燈留子</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
+          <t>陛下2040+岁了变得开朗也很不错</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -706,99 +706,99 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5809727182</v>
+        <v>5810538568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5810008526</v>
+        <v>5824498684</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-11-22 00:49:30</t>
+          <t>2021-11-24 16:39:58</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hexachlorocyclohexane</t>
+          <t>坑里的土豆君</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
+          <t>陛下这场状态怎么那么嗨！</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>5809727182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5807519793</v>
+        <v>5824528952</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-11-21 18:25:36</t>
+          <t>2021-11-24 16:47:16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>彡黄昏彡</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
+          <t>因为是15周年祭的最终场，当然要嗨一点才尽兴[doge]</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5824498684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5810526423</v>
+        <v>93202847488</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-11-22 06:24:28</t>
+          <t>2021-11-24 18:39:41</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>坑里的土豆君</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>感谢(=・ω・=)</t>
+          <t>回复 @彡黄昏彡 :怪不得整场都被带得好嗨</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -808,108 +808,108 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5807519793</v>
+        <v>5824498684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5807519793</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:25:36</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>墨弦青风</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>感谢up，up辛苦了[热词系列_吹爆]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5810526423</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:24:28</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>感谢(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5807519793</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>5808208456</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>2021-11-21 20:10:25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>前面传错了版本，已更正。
 曲目信息、想说的话都在视频里了。
 第一场重制版也已上传，链接https://www.bilibili.com/video/BV1EU4y1u7HA</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5808292895</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:23:50</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>烟云z</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>太顶了老哥[BW2020_棒棒哦]</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5808581488</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021-11-21 21:09:35</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>羽蛇的尾巴尖</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>迅速缓存</t>
-        </is>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,25 +918,25 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5810522401</v>
+        <v>5808292895</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-11-22 06:24:00</t>
+          <t>2021-11-21 20:23:50</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>烟云z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[tv_点赞]</t>
+          <t>太顶了老哥[BW2020_棒棒哦]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -946,38 +946,38 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5808581488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5809188522</v>
+        <v>5808581488</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-11-21 22:40:13</t>
+          <t>2021-11-21 21:09:35</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Panic-</t>
+          <t>羽蛇的尾巴尖</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>草西装男好可怕</t>
+          <t>迅速缓存</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -986,25 +986,25 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5809720823</v>
+        <v>5810522401</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-11-21 23:56:28</t>
+          <t>2021-11-22 06:24:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VirginMary</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>好耶 来了来了</t>
+          <t>[tv_点赞]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1014,31 +1014,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5808581488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5810353355</v>
+        <v>5809188522</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-11-22 03:00:50</t>
+          <t>2021-11-21 22:40:13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>召唤魔术</t>
+          <t>Panic-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>求上传其他场次生肉[tv_大佬]</t>
+          <t>草西装男好可怕</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1054,25 +1054,25 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5817605996</v>
+        <v>5809720823</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-11-23 12:32:48</t>
+          <t>2021-11-21 23:56:28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>总攻祁墨宸大人</t>
+          <t>VirginMary</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>飞速闻讯而来</t>
+          <t>好耶 来了来了</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1088,25 +1088,25 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5810538568</v>
+        <v>5809727182</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-11-22 06:45:54</t>
+          <t>2021-11-21 23:58:18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>冬の伝言</t>
+          <t>夏空凛冬至</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>唉，怎么说呢，自从进击的轨迹之后近年的陛下仿佛是换了一种形象，虽说是放开了许多，但也让人感到缺失了5.6.7平表演时的悲伤、感动和纪行时的那种温柔、坚毅、富有人格魅力的感觉</t>
+          <t>谢谢up！不知道还有没有其他的！</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1122,25 +1122,25 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5811776235</v>
+        <v>5809752664</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-11-22 12:37:31</t>
+          <t>2021-11-22 00:01:40</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>不是你的朱雀</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>从忧郁小王子变成了阳光大男孩</t>
+          <t>暂时...不会做了吧，原因看视频开头</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1150,31 +1150,31 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5810538568</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5814346853</v>
+        <v>5809822355</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-11-22 20:52:20</t>
+          <t>2021-11-22 00:13:14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>我心向云月</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>说起来陛下已经是40+的中年大叔了啊（大不敬）</t>
+          <t>回复 @Ponster_ :可以求其他安可的生肉吗[大哭]</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1184,31 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5810538568</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>15.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5818583189</v>
+        <v>5810008526</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-11-23 16:14:00</t>
+          <t>2021-11-22 00:49:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>燈留子</t>
+          <t>Hexachlorocyclohexane</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>陛下2040+岁了变得开朗也很不错</t>
+          <t>回复 @Ponster_ :同求其他安可的生肉[大哭]</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1218,38 +1218,38 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5810538568</v>
+        <v>5809727182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5812089382</v>
+        <v>5810353355</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-11-22 13:36:01</t>
+          <t>2021-11-22 03:00:50</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>enemin</t>
+          <t>召唤魔术</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>太感谢了 之前还有一版安可不知道有没有大佬传 几乎是猫咪铃唱人偶的</t>
+          <t>求上传其他场次生肉[tv_大佬]</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1258,25 +1258,25 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5814158584</v>
+        <v>93227196384</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-11-22 20:21:43</t>
+          <t>2021-11-24 22:37:40</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>林花花花</t>
+          <t>镇痛药剂</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>那个b站之前有，是被删了吗</t>
+          <t>完整版快端上来罢，我已经迫不及待要品鉴了！！</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1286,65 +1286,65 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5812089382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5814154479</v>
+        <v>5812089382</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-11-22 20:22:06</t>
+          <t>2021-11-22 13:36:01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>林花花花</t>
+          <t>enemin</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>还好缓存的快</t>
+          <t>太感谢了 之前还有一版安可不知道有没有大佬传 几乎是猫咪铃唱人偶的</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>5812089382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5814448893</v>
+        <v>5814158584</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-11-22 21:08:40</t>
+          <t>2021-11-22 20:21:43</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>enemin</t>
+          <t>林花花花</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>回复 @林花花花 :是啊 我前一秒还在看 然后推出去发现就无了 没有缓存 伤心了</t>
+          <t>那个b站之前有，是被删了吗</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1360,25 +1360,25 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5812890404</v>
+        <v>5814154479</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-11-22 16:48:22</t>
+          <t>2021-11-22 20:22:06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大白梨°</t>
+          <t>林花花花</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[doge]陛下终究还是老了，不装13我很不习惯的</t>
+          <t>还好缓存的快</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1388,65 +1388,65 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5812089382</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5813229158</v>
+        <v>5814448893</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-11-22 17:57:18</t>
+          <t>2021-11-22 21:08:40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>林花花花</t>
+          <t>enemin</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>感谢！！</t>
+          <t>回复 @林花花花 :是啊 我前一秒还在看 然后推出去发现就无了 没有缓存 伤心了</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5812089382</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5813402664</v>
+        <v>5812890404</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-11-22 18:25:22</t>
+          <t>2021-11-22 16:48:22</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>大白梨°</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>也感谢你(=・ω・=)</t>
+          <t>[doge]陛下终究还是老了，不装13我很不习惯的</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1456,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5813229158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5814183617</v>
+        <v>5813229158</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-11-22 20:26:08</t>
+          <t>2021-11-22 17:57:18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1480,41 +1480,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>回复 @Ponster_ :想看八平[笑哭]</t>
+          <t>感谢！！</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>5813229158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5815080989</v>
+        <v>5813402664</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-11-22 22:43:19</t>
+          <t>2021-11-22 18:25:22</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>艾奥萝卜</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>先马再看</t>
+          <t>也感谢你(=・ω・=)</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1524,169 +1524,169 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5813229158</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5815188052</v>
+        <v>5814183617</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-11-22 22:59:05</t>
+          <t>2021-11-22 20:26:08</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>自律-Official</t>
+          <t>林花花花</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
+          <t>回复 @Ponster_ :想看八平[笑哭]</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5813229158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B34" t="n">
+        <v>5815080989</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-11-22 22:43:19</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>艾奥萝卜</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>先马再看</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5815188052</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-11-22 22:59:05</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>自律-Official</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>哦哦哦赶紧缓存爽到[夏诺雅_太会了]</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>5815284440</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>2021-11-22 23:12:58</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>这里不要脸地对简介链接里的仓库进行一个安利[doge]
 视频的评论区、弹幕已备份到其中，刚刚更新过
 [吃瓜][吃瓜][吃瓜]</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>5815188052</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5815389687</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2021-11-22 23:28:15</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>自律-Official</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>回复 @Ponster_ :好起来了[夏诺雅_震撼]</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5815188052</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5815263944</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2021-11-22 23:09:47</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>敦肃皇贵妃葛小队</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>第一次看西装男吓尿了</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5815293406</v>
+        <v>5815389687</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-11-22 23:14:02</t>
+          <t>2021-11-22 23:28:15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>自律-Official</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>陛下可是“音乐界的杀人贵公子”呢</t>
+          <t>回复 @Ponster_ :好起来了[夏诺雅_震撼]</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1696,38 +1696,38 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5815263944</v>
+        <v>5815188052</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5815985159</v>
+        <v>5815263944</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-11-23 01:26:12</t>
+          <t>2021-11-22 23:09:47</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>木容秀吉</t>
+          <t>敦肃皇贵妃葛小队</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>这个安可我直呼好家伙</t>
+          <t>第一次看西装男吓尿了</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1736,34 +1736,204 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="B39" t="n">
+        <v>5815293406</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-11-22 23:14:02</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>陛下可是“音乐界的杀人贵公子”呢</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5815263944</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5815985159</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-11-23 01:26:12</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>木容秀吉</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>这个安可我直呼好家伙</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5817605996</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-11-23 12:32:48</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>总攻祁墨宸大人</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>飞速闻讯而来</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5819891283</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-11-23 20:01:10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>霜小凝</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>一键三连了！</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5821806105</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-11-24 01:12:06</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>mojará丶</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>感谢up！</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>5807507484</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>2021-11-21 18:22:28</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>syyuansang</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>这是第几场，泪目了</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>
